--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mandyt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SpringFHL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C84969-6136-4459-A3E4-EF0047E2469E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2975D9-170B-44D9-B09D-34AD07CB254A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{311FDB4E-966A-487E-9301-E5417A274634}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{311FDB4E-966A-487E-9301-E5417A274634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Countries</t>
   </si>
@@ -181,13 +181,64 @@
   </si>
   <si>
     <t>中国</t>
+  </si>
+  <si>
+    <t>IncreaseColumn</t>
+  </si>
+  <si>
+    <t>colorColumn</t>
+  </si>
+  <si>
+    <t>#afc97a</t>
+  </si>
+  <si>
+    <t>#cd7371</t>
+  </si>
+  <si>
+    <t>#729aca</t>
+  </si>
+  <si>
+    <t>#b65708</t>
+  </si>
+  <si>
+    <t>#276a7c</t>
+  </si>
+  <si>
+    <t>#4d3b62</t>
+  </si>
+  <si>
+    <t>#5f7530</t>
+  </si>
+  <si>
+    <t>#772c2a</t>
+  </si>
+  <si>
+    <t>#2c4d75</t>
+  </si>
+  <si>
+    <t>#f79646</t>
+  </si>
+  <si>
+    <t>#4bacc6</t>
+  </si>
+  <si>
+    <t>#8064a2</t>
+  </si>
+  <si>
+    <t>#9bbb59</t>
+  </si>
+  <si>
+    <t>#c0504d</t>
+  </si>
+  <si>
+    <t>#4f81bd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +250,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -250,11 +307,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -272,12 +349,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1121,6 +1192,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1932,1524 +2037,83 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2020-03-26</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TempColumn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="A52A2A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="A52A2A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="800080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="A52A2A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002A-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002C-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-A421-4480-AB9D-A7CC77A6F9C0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>日本</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>丹麦</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>瑞典</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>澳大利亚</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>葡萄牙</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>挪威</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>加拿大</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>奥地利</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>比利时</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>荷兰</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>韩国</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>英国</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>瑞士</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>法国</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>伊朗</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>德国</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>西班牙</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>美国</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>意大利</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>中国</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AB$2:$AB$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1373</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2806</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3193</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3409</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6235</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6440</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9241</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9640</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10909</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25600</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29406</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37323</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>56188</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>69194</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>74386</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>82034</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A421-4480-AB9D-A7CC77A6F9C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="638929143"/>
-        <c:axId val="638924151"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="638929143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="638924151"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="638924151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="638929143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="100" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8174E798-8C1A-4710-AD78-DF29CAE0FBE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D80E1E7-C6D5-49A1-A6CE-B4DE9BBDE6EB}" name="Table3" displayName="Table3" ref="A1:AB21" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D80E1E7-C6D5-49A1-A6CE-B4DE9BBDE6EB}" name="Table3" displayName="Table3" ref="A1:AB21" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:AB21" xr:uid="{629CC74D-2BDC-4F68-860A-D997F5862CFC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" caseSensitive="1" ref="A2:AB21">
     <sortCondition ref="AB2:AB21"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{6DDE8891-F91B-4704-82E2-180C941DFF84}" name="Countries" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{75D98959-CC13-4F8E-9C6C-71FF839C944F}" name="2020-03-01" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E31D6AD5-859D-4548-90C9-0B135160C29A}" name="2020-03-02" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{E08CA832-A92E-40BE-A90F-5F79151E6AEF}" name="2020-03-03" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{9958CDE2-3F19-4AB0-BE12-D2FD798D2933}" name="2020-03-04" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{79E79672-8502-45AD-99EE-F46641728A51}" name="2020-03-05" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{2652B1C1-567F-4C53-ABD9-37DE9214770E}" name="2020-03-06" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{A64CC06D-B27B-4C23-B913-D9B6768C1DC1}" name="2020-03-07" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{D0F9B993-8BDE-48E4-8EA1-70B4B1F211A0}" name="2020-03-08" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{080A4F75-8766-4544-ADF7-4C60D65D324B}" name="2020-03-09" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{B2CBDE0E-030D-47F0-B46D-25F97E9D34C4}" name="2020-03-10" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{97CCF841-F6DB-439A-A3A5-A28C4F1CDFCC}" name="2020-03-11" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{AC8DEA51-E298-495D-997C-68782835D729}" name="2020-03-12" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{0A12D14A-5970-4F1D-8FF6-D308BAFF4468}" name="2020-03-13" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{A6E2D7C4-D595-454C-9705-9E031ED485D2}" name="2020-03-14" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{5E48BB8E-B1FE-4BA3-8FEB-AB14F567F856}" name="2020-03-15" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{37C69788-EA27-4491-B81E-A8E0A158B8EC}" name="2020-03-16" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{1FFC6254-CC78-48C3-BA3F-41B6445E54D6}" name="2020-03-17" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{DFD4B2BC-B639-4581-958F-E82825E1C0B5}" name="2020-03-18" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{2240E466-6E4D-445A-8721-FC50790B5DDD}" name="2020-03-19" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{F921239C-5433-46C6-84BF-DFA2102F24D4}" name="2020-03-20" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{90FB193F-65E2-44F6-9E4B-0E8C6A0DFBFE}" name="2020-03-21" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{65E0180F-1516-4303-8013-5983A0BC0BAE}" name="2020-03-22" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{68916EC9-1970-4773-B247-1EB098DDD8D7}" name="2020-03-23" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{4A24C8C7-2447-4658-9730-1DB944793BAF}" name="2020-03-24" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{C926B128-3830-4472-B6B7-6C002381D459}" name="2020-03-25" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{950DB615-A579-42E6-8BA2-3A114720A2BC}" name="2020-03-26" dataDxfId="1"/>
-    <tableColumn id="28" xr3:uid="{783F60EC-7EFF-40AF-9B5F-62F07CDA5DE1}" name="TempColumn" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6DDE8891-F91B-4704-82E2-180C941DFF84}" name="Countries" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{75D98959-CC13-4F8E-9C6C-71FF839C944F}" name="2020-03-01" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{E31D6AD5-859D-4548-90C9-0B135160C29A}" name="2020-03-02" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{E08CA832-A92E-40BE-A90F-5F79151E6AEF}" name="2020-03-03" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{9958CDE2-3F19-4AB0-BE12-D2FD798D2933}" name="2020-03-04" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{79E79672-8502-45AD-99EE-F46641728A51}" name="2020-03-05" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{2652B1C1-567F-4C53-ABD9-37DE9214770E}" name="2020-03-06" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{A64CC06D-B27B-4C23-B913-D9B6768C1DC1}" name="2020-03-07" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{D0F9B993-8BDE-48E4-8EA1-70B4B1F211A0}" name="2020-03-08" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{080A4F75-8766-4544-ADF7-4C60D65D324B}" name="2020-03-09" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{B2CBDE0E-030D-47F0-B46D-25F97E9D34C4}" name="2020-03-10" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{97CCF841-F6DB-439A-A3A5-A28C4F1CDFCC}" name="2020-03-11" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{AC8DEA51-E298-495D-997C-68782835D729}" name="2020-03-12" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{0A12D14A-5970-4F1D-8FF6-D308BAFF4468}" name="2020-03-13" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{A6E2D7C4-D595-454C-9705-9E031ED485D2}" name="2020-03-14" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{5E48BB8E-B1FE-4BA3-8FEB-AB14F567F856}" name="2020-03-15" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{37C69788-EA27-4491-B81E-A8E0A158B8EC}" name="2020-03-16" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{1FFC6254-CC78-48C3-BA3F-41B6445E54D6}" name="2020-03-17" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{DFD4B2BC-B639-4581-958F-E82825E1C0B5}" name="2020-03-18" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{2240E466-6E4D-445A-8721-FC50790B5DDD}" name="2020-03-19" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{F921239C-5433-46C6-84BF-DFA2102F24D4}" name="2020-03-20" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{90FB193F-65E2-44F6-9E4B-0E8C6A0DFBFE}" name="2020-03-21" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{65E0180F-1516-4303-8013-5983A0BC0BAE}" name="2020-03-22" dataDxfId="37"/>
+    <tableColumn id="24" xr3:uid="{68916EC9-1970-4773-B247-1EB098DDD8D7}" name="2020-03-23" dataDxfId="36"/>
+    <tableColumn id="25" xr3:uid="{4A24C8C7-2447-4658-9730-1DB944793BAF}" name="2020-03-24" dataDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{C926B128-3830-4472-B6B7-6C002381D459}" name="2020-03-25" dataDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{950DB615-A579-42E6-8BA2-3A114720A2BC}" name="2020-03-26" dataDxfId="33"/>
+    <tableColumn id="28" xr3:uid="{783F60EC-7EFF-40AF-9B5F-62F07CDA5DE1}" name="TempColumn" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB066E13-D4DA-4D66-A7E7-C683EE838960}" name="Table2" displayName="Table2" ref="A1:AA21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
-  <autoFilter ref="A1:AA21" xr:uid="{1AE12E19-E90F-4662-8CB1-CAA23AE32347}"/>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{7306F95C-A889-427F-BAF1-F519222217EB}" name="Countries" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{20FDECCE-3EC7-4931-82D8-B946C4CEB52E}" name="2020-03-01" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{EC97C1A7-C3F5-4F3E-96E7-A9A5E90CAE2C}" name="2020-03-02" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{2AE59BFD-EBB5-48DC-8FEA-3896A9E66AB1}" name="2020-03-03" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{57EEB2EB-585B-4FAF-A141-6A8D97879B3A}" name="2020-03-04" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{7E198631-E646-4A91-BBD5-A5C0985AB36C}" name="2020-03-05" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{773CDA4F-77F8-4826-95FE-A5E21EB7544B}" name="2020-03-06" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{01FE788B-EBBA-4CC6-B2FC-8C307BB25C6D}" name="2020-03-07" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{FCB0065A-43D6-453E-8112-FCE2D765F998}" name="2020-03-08" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{63720A3F-753E-4B85-AEC3-6979635D68FB}" name="2020-03-09" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{0734C12D-0F23-4477-9A48-76C2957FC673}" name="2020-03-10" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{90877633-D5CC-456A-9C53-2593804BEEB6}" name="2020-03-11" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{30472DBB-0415-4816-A01E-024E5FD550C2}" name="2020-03-12" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{3E7CD925-7F16-4500-8B70-8B80805F82C0}" name="2020-03-13" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{1BCBFC5C-D2BA-4AA6-A225-59476F24C7EE}" name="2020-03-14" dataDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{11A81171-562B-4A60-BA7D-E845362E2BCF}" name="2020-03-15" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{B78DF377-E16E-44B8-968D-3532074A1B0A}" name="2020-03-16" dataDxfId="41"/>
-    <tableColumn id="18" xr3:uid="{B553677D-CD69-4D70-9CE3-1DF9DF9D6794}" name="2020-03-17" dataDxfId="40"/>
-    <tableColumn id="19" xr3:uid="{3DC1DA85-D157-462A-8B91-954BEAE15F28}" name="2020-03-18" dataDxfId="39"/>
-    <tableColumn id="20" xr3:uid="{94C74DC2-F2B6-4278-A865-EEC792A7BACA}" name="2020-03-19" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{4E7B7B92-61CF-4B19-8937-BC35E8036C66}" name="2020-03-20" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{24745D8C-CA41-4EA9-B07B-9382509AA6DC}" name="2020-03-21" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{AF7F1D27-DDF8-4665-8796-3008691ACADA}" name="2020-03-22" dataDxfId="35"/>
-    <tableColumn id="24" xr3:uid="{A2A5A13C-B37B-42CE-8187-4BD06704315D}" name="2020-03-23" dataDxfId="34"/>
-    <tableColumn id="25" xr3:uid="{EB63221C-0CDB-4805-9739-AC2EB25CB28F}" name="2020-03-24" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{FF081268-32F0-49A3-8666-11BE2D5478AE}" name="2020-03-25" dataDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{A969CBF7-74BC-4A33-9EB1-D9D9931D0D05}" name="2020-03-26" dataDxfId="31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB066E13-D4DA-4D66-A7E7-C683EE838960}" name="Table2" displayName="Table2" ref="A1:AD21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="A1:AD21" xr:uid="{1AE12E19-E90F-4662-8CB1-CAA23AE32347}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" caseSensitive="1" ref="A2:AD21">
+    <sortCondition ref="AB2:AB21"/>
+  </sortState>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{7306F95C-A889-427F-BAF1-F519222217EB}" name="Countries" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{20FDECCE-3EC7-4931-82D8-B946C4CEB52E}" name="2020-03-01" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{EC97C1A7-C3F5-4F3E-96E7-A9A5E90CAE2C}" name="2020-03-02" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{2AE59BFD-EBB5-48DC-8FEA-3896A9E66AB1}" name="2020-03-03" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{57EEB2EB-585B-4FAF-A141-6A8D97879B3A}" name="2020-03-04" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{7E198631-E646-4A91-BBD5-A5C0985AB36C}" name="2020-03-05" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{773CDA4F-77F8-4826-95FE-A5E21EB7544B}" name="2020-03-06" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{01FE788B-EBBA-4CC6-B2FC-8C307BB25C6D}" name="2020-03-07" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{FCB0065A-43D6-453E-8112-FCE2D765F998}" name="2020-03-08" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{63720A3F-753E-4B85-AEC3-6979635D68FB}" name="2020-03-09" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{0734C12D-0F23-4477-9A48-76C2957FC673}" name="2020-03-10" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{90877633-D5CC-456A-9C53-2593804BEEB6}" name="2020-03-11" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{30472DBB-0415-4816-A01E-024E5FD550C2}" name="2020-03-12" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{3E7CD925-7F16-4500-8B70-8B80805F82C0}" name="2020-03-13" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{1BCBFC5C-D2BA-4AA6-A225-59476F24C7EE}" name="2020-03-14" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{11A81171-562B-4A60-BA7D-E845362E2BCF}" name="2020-03-15" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{B78DF377-E16E-44B8-968D-3532074A1B0A}" name="2020-03-16" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{B553677D-CD69-4D70-9CE3-1DF9DF9D6794}" name="2020-03-17" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{3DC1DA85-D157-462A-8B91-954BEAE15F28}" name="2020-03-18" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{94C74DC2-F2B6-4278-A865-EEC792A7BACA}" name="2020-03-19" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{4E7B7B92-61CF-4B19-8937-BC35E8036C66}" name="2020-03-20" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{24745D8C-CA41-4EA9-B07B-9382509AA6DC}" name="2020-03-21" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{AF7F1D27-DDF8-4665-8796-3008691ACADA}" name="2020-03-22" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{A2A5A13C-B37B-42CE-8187-4BD06704315D}" name="2020-03-23" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{EB63221C-0CDB-4805-9739-AC2EB25CB28F}" name="2020-03-24" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{FF081268-32F0-49A3-8666-11BE2D5478AE}" name="2020-03-25" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{A969CBF7-74BC-4A33-9EB1-D9D9931D0D05}" name="2020-03-26" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{5CE45ACC-C920-4317-ACB2-BBA767FD15D4}" name="TempColumn" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{76D8DBBF-4200-4D6D-98B7-69906D532C32}" name="IncreaseColumn"/>
+    <tableColumn id="30" xr3:uid="{34A1006A-A5FE-4701-8E39-6904E2E47CEF}" name="colorColumn" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3750,12 +2414,30 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="6">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{41FCA16F-9B4A-49AD-A4AF-76A6D26053B8}">
+  <we:reference id="ca07ead2-9632-4673-a9dc-77d6119d0609" version="1.0.0.0" store="developer" storeType="Registry"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4B2B2D-4730-435A-A8B3-EDE290AC9B1A}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5571,7 +4253,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -5580,10 +4262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7C4F2C-5F70-421A-A7A3-FE4CBA94C029}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,7 +4275,7 @@
     <col min="3" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5675,1669 +4357,1862 @@
       <c r="AA1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2">
+        <v>961</v>
+      </c>
+      <c r="C2" s="2">
+        <v>980</v>
+      </c>
+      <c r="D2" s="2">
+        <v>999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1032</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1056</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1112</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1157</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1190</v>
+      </c>
+      <c r="J2" s="2">
+        <v>522</v>
+      </c>
+      <c r="K2" s="2">
+        <v>611</v>
+      </c>
+      <c r="L2" s="2">
+        <v>628</v>
+      </c>
+      <c r="M2" s="2">
+        <v>690</v>
+      </c>
+      <c r="N2" s="2">
+        <v>724</v>
+      </c>
+      <c r="O2" s="2">
+        <v>786</v>
+      </c>
+      <c r="P2" s="2">
+        <v>818</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>835</v>
+      </c>
+      <c r="R2" s="2">
+        <v>880</v>
+      </c>
+      <c r="S2" s="2">
+        <v>919</v>
+      </c>
+      <c r="T2" s="2">
+        <v>956</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1016</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1054</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1101</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1138</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1209</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1302</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1373</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1373</v>
+      </c>
+      <c r="AC2">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1">
+        <v>156</v>
+      </c>
+      <c r="L3" s="1">
+        <v>340</v>
+      </c>
+      <c r="M3" s="1">
+        <v>617</v>
+      </c>
+      <c r="N3" s="1">
+        <v>788</v>
+      </c>
+      <c r="O3" s="1">
+        <v>827</v>
+      </c>
+      <c r="P3" s="1">
+        <v>836</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>916</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1007</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1092</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1206</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1226</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1420</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1420</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1572</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1703</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1852</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1997</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1997</v>
+      </c>
+      <c r="AC3">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>94</v>
+      </c>
+      <c r="H4" s="2">
+        <v>161</v>
+      </c>
+      <c r="I4" s="2">
+        <v>203</v>
+      </c>
+      <c r="J4" s="2">
+        <v>248</v>
+      </c>
+      <c r="K4" s="2">
+        <v>326</v>
+      </c>
+      <c r="L4" s="2">
+        <v>473</v>
+      </c>
+      <c r="M4" s="2">
+        <v>500</v>
+      </c>
+      <c r="N4" s="2">
+        <v>751</v>
+      </c>
+      <c r="O4" s="2">
+        <v>814</v>
+      </c>
+      <c r="P4" s="2">
+        <v>992</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1040</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1121</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1196</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1301</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1439</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1763</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1925</v>
+      </c>
+      <c r="X4" s="2">
+        <v>2038</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>2104</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>2318</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>2526</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>2526</v>
+      </c>
+      <c r="AC4">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2">
+        <v>64</v>
+      </c>
+      <c r="I5" s="2">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2">
+        <v>83</v>
+      </c>
+      <c r="K5" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" s="2">
+        <v>117</v>
+      </c>
+      <c r="M5" s="2">
+        <v>159</v>
+      </c>
+      <c r="N5" s="2">
+        <v>160</v>
+      </c>
+      <c r="O5" s="2">
+        <v>236</v>
+      </c>
+      <c r="P5" s="2">
+        <v>272</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>375</v>
+      </c>
+      <c r="R5" s="2">
+        <v>452</v>
+      </c>
+      <c r="S5" s="2">
+        <v>565</v>
+      </c>
+      <c r="T5" s="2">
+        <v>681</v>
+      </c>
+      <c r="U5" s="2">
+        <v>877</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1071</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1356</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2136</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>2423</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>2806</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>2806</v>
+      </c>
+      <c r="AC5">
+        <v>127</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>59</v>
+      </c>
+      <c r="M6" s="2">
+        <v>59</v>
+      </c>
+      <c r="N6" s="2">
+        <v>78</v>
+      </c>
+      <c r="O6" s="2">
+        <v>112</v>
+      </c>
+      <c r="P6" s="2">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>331</v>
+      </c>
+      <c r="R6" s="2">
+        <v>448</v>
+      </c>
+      <c r="S6" s="2">
+        <v>642</v>
+      </c>
+      <c r="T6" s="2">
+        <v>785</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1020</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1600</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2060</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2362</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2995</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2995</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>2995</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1">
+        <v>136</v>
+      </c>
+      <c r="I7" s="1">
+        <v>157</v>
+      </c>
+      <c r="J7" s="1">
+        <v>176</v>
+      </c>
+      <c r="K7" s="1">
+        <v>176</v>
+      </c>
+      <c r="L7" s="1">
+        <v>436</v>
+      </c>
+      <c r="M7" s="1">
+        <v>632</v>
+      </c>
+      <c r="N7" s="1">
+        <v>895</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1090</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1282</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1360</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1527</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1601</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1794</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1994</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2249</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2538</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2726</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2902</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3193</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>3193</v>
+      </c>
+      <c r="AC7">
+        <v>97</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1">
+        <v>66</v>
+      </c>
+      <c r="K8" s="1">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1">
+        <v>95</v>
+      </c>
+      <c r="M8" s="1">
+        <v>117</v>
+      </c>
+      <c r="N8" s="1">
+        <v>158</v>
+      </c>
+      <c r="O8" s="1">
+        <v>198</v>
+      </c>
+      <c r="P8" s="1">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>342</v>
+      </c>
+      <c r="R8" s="1">
+        <v>439</v>
+      </c>
+      <c r="S8" s="1">
+        <v>598</v>
+      </c>
+      <c r="T8" s="1">
+        <v>727</v>
+      </c>
+      <c r="U8" s="1">
+        <v>873</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1146</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1377</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1470</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2088</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2792</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>3409</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>3409</v>
+      </c>
+      <c r="AC8">
+        <v>205</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2">
+        <v>104</v>
+      </c>
+      <c r="J9" s="2">
+        <v>104</v>
+      </c>
+      <c r="K9" s="2">
+        <v>157</v>
+      </c>
+      <c r="L9" s="2">
+        <v>206</v>
+      </c>
+      <c r="M9" s="2">
+        <v>302</v>
+      </c>
+      <c r="N9" s="2">
+        <v>428</v>
+      </c>
+      <c r="O9" s="2">
+        <v>504</v>
+      </c>
+      <c r="P9" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1018</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1132</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1471</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1843</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2203</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2814</v>
+      </c>
+      <c r="W9" s="2">
+        <v>3062</v>
+      </c>
+      <c r="X9" s="2">
+        <v>3923</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>4876</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>5499</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>6001</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>6001</v>
+      </c>
+      <c r="AC9">
+        <v>167</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>109</v>
+      </c>
+      <c r="H10" s="1">
+        <v>169</v>
+      </c>
+      <c r="I10" s="1">
+        <v>200</v>
+      </c>
+      <c r="J10" s="1">
+        <v>239</v>
+      </c>
+      <c r="K10" s="1">
+        <v>267</v>
+      </c>
+      <c r="L10" s="1">
+        <v>314</v>
+      </c>
+      <c r="M10" s="1">
+        <v>399</v>
+      </c>
+      <c r="N10" s="1">
+        <v>399</v>
+      </c>
+      <c r="O10" s="1">
+        <v>689</v>
+      </c>
+      <c r="P10" s="1">
+        <v>886</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1058</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1243</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1486</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1795</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2257</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2815</v>
+      </c>
+      <c r="W10" s="1">
+        <v>3401</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3743</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4269</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4937</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>6235</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>6235</v>
+      </c>
+      <c r="AC10">
+        <v>432</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1">
+        <v>82</v>
+      </c>
+      <c r="G11" s="1">
+        <v>128</v>
+      </c>
+      <c r="H11" s="1">
+        <v>128</v>
+      </c>
+      <c r="I11" s="1">
+        <v>265</v>
+      </c>
+      <c r="J11" s="1">
+        <v>321</v>
+      </c>
+      <c r="K11" s="1">
+        <v>382</v>
+      </c>
+      <c r="L11" s="1">
+        <v>503</v>
+      </c>
+      <c r="M11" s="1">
+        <v>614</v>
+      </c>
+      <c r="N11" s="1">
+        <v>804</v>
+      </c>
+      <c r="O11" s="1">
+        <v>807</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1135</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1413</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1705</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2058</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2460</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3003</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3631</v>
+      </c>
+      <c r="W11" s="1">
+        <v>4216</v>
+      </c>
+      <c r="X11" s="1">
+        <v>4749</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>5578</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>6412</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3736</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4335</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5186</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5621</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6088</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6593</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7041</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7313</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7478</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7513</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7755</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7869</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7979</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8086</v>
+      </c>
+      <c r="P12" s="1">
+        <v>8162</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>8236</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8320</v>
+      </c>
+      <c r="S12" s="1">
+        <v>8413</v>
+      </c>
+      <c r="T12" s="1">
+        <v>8565</v>
+      </c>
+      <c r="U12" s="1">
+        <v>8652</v>
+      </c>
+      <c r="V12" s="1">
+        <v>8799</v>
+      </c>
+      <c r="W12" s="1">
+        <v>8897</v>
+      </c>
+      <c r="X12" s="1">
+        <v>8961</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>9037</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>9137</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>9241</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>9241</v>
+      </c>
+      <c r="AC12">
+        <v>34</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2">
+        <v>163</v>
+      </c>
+      <c r="H13" s="2">
+        <v>206</v>
+      </c>
+      <c r="I13" s="2">
+        <v>273</v>
+      </c>
+      <c r="J13" s="2">
+        <v>319</v>
+      </c>
+      <c r="K13" s="2">
+        <v>373</v>
+      </c>
+      <c r="L13" s="2">
+        <v>456</v>
+      </c>
+      <c r="M13" s="2">
+        <v>590</v>
+      </c>
+      <c r="N13" s="2">
+        <v>798</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1140</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1145</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1543</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1950</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2626</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2644</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3280</v>
+      </c>
+      <c r="V13" s="2">
+        <v>4014</v>
+      </c>
+      <c r="W13" s="2">
+        <v>5067</v>
+      </c>
+      <c r="X13" s="2">
+        <v>5748</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>6733</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>8167</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>9640</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>9640</v>
+      </c>
+      <c r="AC13">
+        <v>491</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1">
+        <v>210</v>
+      </c>
+      <c r="H14" s="1">
+        <v>228</v>
+      </c>
+      <c r="I14" s="1">
+        <v>281</v>
+      </c>
+      <c r="J14" s="1">
+        <v>337</v>
+      </c>
+      <c r="K14" s="1">
+        <v>476</v>
+      </c>
+      <c r="L14" s="1">
+        <v>645</v>
+      </c>
+      <c r="M14" s="1">
+        <v>815</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1135</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1189</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2220</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2221</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2330</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3028</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3438</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4164</v>
+      </c>
+      <c r="V14" s="1">
+        <v>6113</v>
+      </c>
+      <c r="W14" s="1">
+        <v>7014</v>
+      </c>
+      <c r="X14" s="1">
+        <v>8547</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>9494</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>10456</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>10909</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>10909</v>
+      </c>
+      <c r="AC14">
+        <v>151</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>130</v>
+      </c>
+      <c r="D15" s="2">
+        <v>204</v>
+      </c>
+      <c r="E15" s="2">
+        <v>257</v>
+      </c>
+      <c r="F15" s="2">
+        <v>377</v>
+      </c>
+      <c r="G15" s="2">
+        <v>577</v>
+      </c>
+      <c r="H15" s="2">
+        <v>716</v>
+      </c>
+      <c r="I15" s="2">
+        <v>949</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1209</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1606</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1784</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2284</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2876</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3667</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4500</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>5423</v>
+      </c>
+      <c r="R15" s="2">
+        <v>6664</v>
+      </c>
+      <c r="S15" s="2">
+        <v>7730</v>
+      </c>
+      <c r="T15" s="2">
+        <v>9134</v>
+      </c>
+      <c r="U15" s="2">
+        <v>11010</v>
+      </c>
+      <c r="V15" s="2">
+        <v>12632</v>
+      </c>
+      <c r="W15" s="2">
+        <v>14485</v>
+      </c>
+      <c r="X15" s="2">
+        <v>16928</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>20149</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>22633</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>25600</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>25600</v>
+      </c>
+      <c r="AC15">
+        <v>989</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>593</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1501</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2336</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2922</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3513</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4747</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5823</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6566</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7161</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8042</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10075</v>
+      </c>
+      <c r="N16" s="1">
+        <v>11364</v>
+      </c>
+      <c r="O16" s="1">
+        <v>12729</v>
+      </c>
+      <c r="P16" s="1">
+        <v>13938</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>14991</v>
+      </c>
+      <c r="R16" s="1">
+        <v>16169</v>
+      </c>
+      <c r="S16" s="1">
+        <v>17361</v>
+      </c>
+      <c r="T16" s="1">
+        <v>18407</v>
+      </c>
+      <c r="U16" s="1">
+        <v>19644</v>
+      </c>
+      <c r="V16" s="1">
+        <v>20610</v>
+      </c>
+      <c r="W16" s="1">
+        <v>21638</v>
+      </c>
+      <c r="X16" s="1">
+        <v>23049</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>24811</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>27017</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>29406</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>29406</v>
+      </c>
+      <c r="AC16">
+        <v>796</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>117</v>
+      </c>
+      <c r="C17" s="2">
+        <v>150</v>
+      </c>
+      <c r="D17" s="2">
+        <v>196</v>
+      </c>
+      <c r="E17" s="2">
+        <v>240</v>
+      </c>
+      <c r="F17" s="2">
+        <v>349</v>
+      </c>
+      <c r="G17" s="2">
+        <v>565</v>
+      </c>
+      <c r="H17" s="2">
+        <v>684</v>
+      </c>
+      <c r="I17" s="2">
+        <v>939</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1112</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1139</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1565</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2078</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3117</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3718</v>
+      </c>
+      <c r="P17" s="2">
+        <v>5142</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>6248</v>
+      </c>
+      <c r="R17" s="2">
+        <v>7689</v>
+      </c>
+      <c r="S17" s="2">
+        <v>10082</v>
+      </c>
+      <c r="T17" s="2">
+        <v>14259</v>
+      </c>
+      <c r="U17" s="2">
+        <v>17653</v>
+      </c>
+      <c r="V17" s="2">
+        <v>21652</v>
+      </c>
+      <c r="W17" s="2">
+        <v>23952</v>
+      </c>
+      <c r="X17" s="2">
+        <v>27289</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>31370</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>35353</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>37323</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>37323</v>
+      </c>
+      <c r="AC17">
+        <v>656</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2">
+        <v>179</v>
+      </c>
+      <c r="F18" s="2">
+        <v>248</v>
+      </c>
+      <c r="G18" s="2">
+        <v>365</v>
+      </c>
+      <c r="H18" s="2">
+        <v>430</v>
+      </c>
+      <c r="I18" s="2">
+        <v>613</v>
+      </c>
+      <c r="J18" s="2">
+        <v>909</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1648</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2174</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2968</v>
+      </c>
+      <c r="N18" s="2">
+        <v>4209</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5753</v>
+      </c>
+      <c r="P18" s="2">
+        <v>7753</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>9407</v>
+      </c>
+      <c r="R18" s="2">
+        <v>11309</v>
+      </c>
+      <c r="S18" s="2">
+        <v>13910</v>
+      </c>
+      <c r="T18" s="2">
+        <v>17147</v>
+      </c>
+      <c r="U18" s="2">
+        <v>20410</v>
+      </c>
+      <c r="V18" s="2">
+        <v>25374</v>
+      </c>
+      <c r="W18" s="2">
+        <v>28603</v>
+      </c>
+      <c r="X18" s="2">
+        <v>33089</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>39675</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>47610</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>56188</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>56188</v>
+      </c>
+      <c r="AC18">
+        <v>2859</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1">
+        <v>89</v>
+      </c>
+      <c r="D19" s="1">
+        <v>106</v>
+      </c>
+      <c r="E19" s="1">
+        <v>126</v>
+      </c>
+      <c r="F19" s="1">
+        <v>161</v>
+      </c>
+      <c r="G19" s="1">
+        <v>233</v>
+      </c>
+      <c r="H19" s="1">
+        <v>338</v>
+      </c>
+      <c r="I19" s="1">
+        <v>445</v>
+      </c>
+      <c r="J19" s="1">
+        <v>572</v>
+      </c>
+      <c r="K19" s="1">
+        <v>717</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1004</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1323</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1832</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2291</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2995</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3782</v>
+      </c>
+      <c r="R19" s="1">
+        <v>5073</v>
+      </c>
+      <c r="S19" s="1">
+        <v>6536</v>
+      </c>
+      <c r="T19" s="1">
+        <v>10525</v>
+      </c>
+      <c r="U19" s="1">
+        <v>14387</v>
+      </c>
+      <c r="V19" s="1">
+        <v>19624</v>
+      </c>
+      <c r="W19" s="1">
+        <v>27111</v>
+      </c>
+      <c r="X19" s="1">
+        <v>39183</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>46450</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>55231</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>69194</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>69194</v>
+      </c>
+      <c r="AC19">
+        <v>4654</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1128</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1731</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2084</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2546</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3144</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3927</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4680</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6092</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7424</v>
+      </c>
+      <c r="K20" s="2">
+        <v>9172</v>
+      </c>
+      <c r="L20" s="2">
+        <v>10293</v>
+      </c>
+      <c r="M20" s="2">
+        <v>12462</v>
+      </c>
+      <c r="N20" s="2">
+        <v>15385</v>
+      </c>
+      <c r="O20" s="2">
+        <v>17660</v>
+      </c>
+      <c r="P20" s="2">
+        <v>21270</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>24938</v>
+      </c>
+      <c r="R20" s="2">
+        <v>27980</v>
+      </c>
+      <c r="S20" s="2">
+        <v>31506</v>
+      </c>
+      <c r="T20" s="2">
+        <v>36455</v>
+      </c>
+      <c r="U20" s="2">
+        <v>41035</v>
+      </c>
+      <c r="V20" s="2">
+        <v>47449</v>
+      </c>
+      <c r="W20" s="2">
+        <v>53578</v>
+      </c>
+      <c r="X20" s="2">
+        <v>60441</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>63927</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>69176</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>74386</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>74386</v>
+      </c>
+      <c r="AC20">
+        <v>1736</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B21" s="1">
         <v>80174</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C21" s="1">
         <v>80302</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D21" s="1">
         <v>80422</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E21" s="1">
         <v>80565</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F21" s="1">
         <v>80710</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G21" s="1">
         <v>80813</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H21" s="1">
         <v>80859</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I21" s="1">
         <v>80904</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J21" s="1">
         <v>80924</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K21" s="1">
         <v>80955</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L21" s="1">
         <v>80992</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M21" s="1">
         <v>81003</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N21" s="1">
         <v>81021</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O21" s="1">
         <v>81048</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P21" s="1">
         <v>81077</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q21" s="1">
         <v>81116</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R21" s="1">
         <v>81151</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S21" s="1">
         <v>81235</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T21" s="1">
         <v>81300</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U21" s="1">
         <v>81416</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V21" s="1">
         <v>81498</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W21" s="1">
         <v>81600</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X21" s="1">
         <v>81747</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y21" s="1">
         <v>81846</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z21" s="1">
         <v>81960</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA21" s="1">
         <v>82034</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1128</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1731</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2084</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2546</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3144</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3927</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4680</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6092</v>
-      </c>
-      <c r="J3" s="2">
-        <v>7424</v>
-      </c>
-      <c r="K3" s="2">
-        <v>9172</v>
-      </c>
-      <c r="L3" s="2">
-        <v>10293</v>
-      </c>
-      <c r="M3" s="2">
-        <v>12462</v>
-      </c>
-      <c r="N3" s="2">
-        <v>15385</v>
-      </c>
-      <c r="O3" s="2">
-        <v>17660</v>
-      </c>
-      <c r="P3" s="2">
-        <v>21270</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>24938</v>
-      </c>
-      <c r="R3" s="2">
-        <v>27980</v>
-      </c>
-      <c r="S3" s="2">
-        <v>31506</v>
-      </c>
-      <c r="T3" s="2">
-        <v>36455</v>
-      </c>
-      <c r="U3" s="2">
-        <v>41035</v>
-      </c>
-      <c r="V3" s="2">
-        <v>47449</v>
-      </c>
-      <c r="W3" s="2">
-        <v>53578</v>
-      </c>
-      <c r="X3" s="2">
-        <v>60441</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>63927</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>69176</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>74386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1">
-        <v>593</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1501</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2336</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2922</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3513</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4747</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5823</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6566</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7161</v>
-      </c>
-      <c r="K4" s="1">
-        <v>8042</v>
-      </c>
-      <c r="L4" s="1">
-        <v>9000</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10075</v>
-      </c>
-      <c r="N4" s="1">
-        <v>11364</v>
-      </c>
-      <c r="O4" s="1">
-        <v>12729</v>
-      </c>
-      <c r="P4" s="1">
-        <v>13938</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>14991</v>
-      </c>
-      <c r="R4" s="1">
-        <v>16169</v>
-      </c>
-      <c r="S4" s="1">
-        <v>17361</v>
-      </c>
-      <c r="T4" s="1">
-        <v>18407</v>
-      </c>
-      <c r="U4" s="1">
-        <v>19644</v>
-      </c>
-      <c r="V4" s="1">
-        <v>20610</v>
-      </c>
-      <c r="W4" s="1">
-        <v>21638</v>
-      </c>
-      <c r="X4" s="1">
-        <v>23049</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>24811</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>27017</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>29406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2">
-        <v>150</v>
-      </c>
-      <c r="E5" s="2">
-        <v>179</v>
-      </c>
-      <c r="F5" s="2">
-        <v>248</v>
-      </c>
-      <c r="G5" s="2">
-        <v>365</v>
-      </c>
-      <c r="H5" s="2">
-        <v>430</v>
-      </c>
-      <c r="I5" s="2">
-        <v>613</v>
-      </c>
-      <c r="J5" s="2">
-        <v>909</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1648</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2174</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2968</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4209</v>
-      </c>
-      <c r="O5" s="2">
-        <v>5753</v>
-      </c>
-      <c r="P5" s="2">
-        <v>7753</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>9407</v>
-      </c>
-      <c r="R5" s="2">
-        <v>11309</v>
-      </c>
-      <c r="S5" s="2">
-        <v>13910</v>
-      </c>
-      <c r="T5" s="2">
-        <v>17147</v>
-      </c>
-      <c r="U5" s="2">
-        <v>20410</v>
-      </c>
-      <c r="V5" s="2">
-        <v>25374</v>
-      </c>
-      <c r="W5" s="2">
-        <v>28603</v>
-      </c>
-      <c r="X5" s="2">
-        <v>33089</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>39675</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>47610</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>56188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1">
-        <v>89</v>
-      </c>
-      <c r="D6" s="1">
-        <v>106</v>
-      </c>
-      <c r="E6" s="1">
-        <v>126</v>
-      </c>
-      <c r="F6" s="1">
-        <v>161</v>
-      </c>
-      <c r="G6" s="1">
-        <v>233</v>
-      </c>
-      <c r="H6" s="1">
-        <v>338</v>
-      </c>
-      <c r="I6" s="1">
-        <v>445</v>
-      </c>
-      <c r="J6" s="1">
-        <v>572</v>
-      </c>
-      <c r="K6" s="1">
-        <v>717</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1004</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1323</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1832</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2291</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2995</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>3782</v>
-      </c>
-      <c r="R6" s="1">
-        <v>5073</v>
-      </c>
-      <c r="S6" s="1">
-        <v>6536</v>
-      </c>
-      <c r="T6" s="1">
-        <v>10525</v>
-      </c>
-      <c r="U6" s="1">
-        <v>14387</v>
-      </c>
-      <c r="V6" s="1">
-        <v>19624</v>
-      </c>
-      <c r="W6" s="1">
-        <v>27111</v>
-      </c>
-      <c r="X6" s="1">
-        <v>39183</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>46450</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>55231</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>69194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>117</v>
-      </c>
-      <c r="C7" s="2">
-        <v>150</v>
-      </c>
-      <c r="D7" s="2">
-        <v>196</v>
-      </c>
-      <c r="E7" s="2">
-        <v>240</v>
-      </c>
-      <c r="F7" s="2">
-        <v>349</v>
-      </c>
-      <c r="G7" s="2">
-        <v>565</v>
-      </c>
-      <c r="H7" s="2">
-        <v>684</v>
-      </c>
-      <c r="I7" s="2">
-        <v>939</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1112</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1139</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1565</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2078</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3117</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3718</v>
-      </c>
-      <c r="P7" s="2">
-        <v>5142</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>6248</v>
-      </c>
-      <c r="R7" s="2">
-        <v>7689</v>
-      </c>
-      <c r="S7" s="2">
-        <v>10082</v>
-      </c>
-      <c r="T7" s="2">
-        <v>14259</v>
-      </c>
-      <c r="U7" s="2">
-        <v>17653</v>
-      </c>
-      <c r="V7" s="2">
-        <v>21652</v>
-      </c>
-      <c r="W7" s="2">
-        <v>23952</v>
-      </c>
-      <c r="X7" s="2">
-        <v>27289</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>31370</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>35353</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>37323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3736</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4335</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5186</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5621</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6088</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6593</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7041</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7313</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7478</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7513</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7755</v>
-      </c>
-      <c r="M8" s="1">
-        <v>7869</v>
-      </c>
-      <c r="N8" s="1">
-        <v>7979</v>
-      </c>
-      <c r="O8" s="1">
-        <v>8086</v>
-      </c>
-      <c r="P8" s="1">
-        <v>8162</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>8236</v>
-      </c>
-      <c r="R8" s="1">
-        <v>8320</v>
-      </c>
-      <c r="S8" s="1">
-        <v>8413</v>
-      </c>
-      <c r="T8" s="1">
-        <v>8565</v>
-      </c>
-      <c r="U8" s="1">
-        <v>8652</v>
-      </c>
-      <c r="V8" s="1">
-        <v>8799</v>
-      </c>
-      <c r="W8" s="1">
-        <v>8897</v>
-      </c>
-      <c r="X8" s="1">
-        <v>8961</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>9037</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>9137</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>9241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2">
-        <v>100</v>
-      </c>
-      <c r="C9" s="2">
-        <v>130</v>
-      </c>
-      <c r="D9" s="2">
-        <v>204</v>
-      </c>
-      <c r="E9" s="2">
-        <v>257</v>
-      </c>
-      <c r="F9" s="2">
-        <v>377</v>
-      </c>
-      <c r="G9" s="2">
-        <v>577</v>
-      </c>
-      <c r="H9" s="2">
-        <v>716</v>
-      </c>
-      <c r="I9" s="2">
-        <v>949</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1209</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1606</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1784</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2284</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2876</v>
-      </c>
-      <c r="O9" s="2">
-        <v>3667</v>
-      </c>
-      <c r="P9" s="2">
-        <v>4500</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>5423</v>
-      </c>
-      <c r="R9" s="2">
-        <v>6664</v>
-      </c>
-      <c r="S9" s="2">
-        <v>7730</v>
-      </c>
-      <c r="T9" s="2">
-        <v>9134</v>
-      </c>
-      <c r="U9" s="2">
-        <v>11010</v>
-      </c>
-      <c r="V9" s="2">
-        <v>12632</v>
-      </c>
-      <c r="W9" s="2">
-        <v>14485</v>
-      </c>
-      <c r="X9" s="2">
-        <v>16928</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>20149</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>22633</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="AB21" s="1">
+        <v>82034</v>
+      </c>
+      <c r="AC21">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1">
-        <v>81</v>
-      </c>
-      <c r="G10" s="1">
-        <v>210</v>
-      </c>
-      <c r="H10" s="1">
-        <v>228</v>
-      </c>
-      <c r="I10" s="1">
-        <v>281</v>
-      </c>
-      <c r="J10" s="1">
-        <v>337</v>
-      </c>
-      <c r="K10" s="1">
-        <v>476</v>
-      </c>
-      <c r="L10" s="1">
-        <v>645</v>
-      </c>
-      <c r="M10" s="1">
-        <v>815</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1135</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1189</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2220</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2221</v>
-      </c>
-      <c r="R10" s="1">
-        <v>2330</v>
-      </c>
-      <c r="S10" s="1">
-        <v>3028</v>
-      </c>
-      <c r="T10" s="1">
-        <v>3438</v>
-      </c>
-      <c r="U10" s="1">
-        <v>4164</v>
-      </c>
-      <c r="V10" s="1">
-        <v>6113</v>
-      </c>
-      <c r="W10" s="1">
-        <v>7014</v>
-      </c>
-      <c r="X10" s="1">
-        <v>8547</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>9494</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>10456</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>10909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2">
-        <v>90</v>
-      </c>
-      <c r="G11" s="2">
-        <v>163</v>
-      </c>
-      <c r="H11" s="2">
-        <v>206</v>
-      </c>
-      <c r="I11" s="2">
-        <v>273</v>
-      </c>
-      <c r="J11" s="2">
-        <v>319</v>
-      </c>
-      <c r="K11" s="2">
-        <v>373</v>
-      </c>
-      <c r="L11" s="2">
-        <v>456</v>
-      </c>
-      <c r="M11" s="2">
-        <v>590</v>
-      </c>
-      <c r="N11" s="2">
-        <v>798</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1140</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1145</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1543</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1950</v>
-      </c>
-      <c r="S11" s="2">
-        <v>2626</v>
-      </c>
-      <c r="T11" s="2">
-        <v>2644</v>
-      </c>
-      <c r="U11" s="2">
-        <v>3280</v>
-      </c>
-      <c r="V11" s="2">
-        <v>4014</v>
-      </c>
-      <c r="W11" s="2">
-        <v>5067</v>
-      </c>
-      <c r="X11" s="2">
-        <v>5748</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>6733</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>8167</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>9640</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1">
-        <v>82</v>
-      </c>
-      <c r="G12" s="1">
-        <v>128</v>
-      </c>
-      <c r="H12" s="1">
-        <v>128</v>
-      </c>
-      <c r="I12" s="1">
-        <v>265</v>
-      </c>
-      <c r="J12" s="1">
-        <v>321</v>
-      </c>
-      <c r="K12" s="1">
-        <v>382</v>
-      </c>
-      <c r="L12" s="1">
-        <v>503</v>
-      </c>
-      <c r="M12" s="1">
-        <v>614</v>
-      </c>
-      <c r="N12" s="1">
-        <v>804</v>
-      </c>
-      <c r="O12" s="1">
-        <v>807</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1135</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1413</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1705</v>
-      </c>
-      <c r="S12" s="1">
-        <v>2058</v>
-      </c>
-      <c r="T12" s="1">
-        <v>2460</v>
-      </c>
-      <c r="U12" s="1">
-        <v>3003</v>
-      </c>
-      <c r="V12" s="1">
-        <v>3631</v>
-      </c>
-      <c r="W12" s="1">
-        <v>4216</v>
-      </c>
-      <c r="X12" s="1">
-        <v>4749</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>5578</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>6412</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>6440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2">
-        <v>961</v>
-      </c>
-      <c r="C13" s="2">
-        <v>980</v>
-      </c>
-      <c r="D13" s="2">
-        <v>999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1032</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1056</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1112</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1157</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1190</v>
-      </c>
-      <c r="J13" s="2">
-        <v>522</v>
-      </c>
-      <c r="K13" s="2">
-        <v>611</v>
-      </c>
-      <c r="L13" s="2">
-        <v>628</v>
-      </c>
-      <c r="M13" s="2">
-        <v>690</v>
-      </c>
-      <c r="N13" s="2">
-        <v>724</v>
-      </c>
-      <c r="O13" s="2">
-        <v>786</v>
-      </c>
-      <c r="P13" s="2">
-        <v>818</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>835</v>
-      </c>
-      <c r="R13" s="2">
-        <v>880</v>
-      </c>
-      <c r="S13" s="2">
-        <v>919</v>
-      </c>
-      <c r="T13" s="2">
-        <v>956</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1016</v>
-      </c>
-      <c r="V13" s="2">
-        <v>1054</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1101</v>
-      </c>
-      <c r="X13" s="2">
-        <v>1138</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1209</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>1302</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1">
-        <v>50</v>
-      </c>
-      <c r="G14" s="1">
-        <v>109</v>
-      </c>
-      <c r="H14" s="1">
-        <v>169</v>
-      </c>
-      <c r="I14" s="1">
-        <v>200</v>
-      </c>
-      <c r="J14" s="1">
-        <v>239</v>
-      </c>
-      <c r="K14" s="1">
-        <v>267</v>
-      </c>
-      <c r="L14" s="1">
-        <v>314</v>
-      </c>
-      <c r="M14" s="1">
-        <v>399</v>
-      </c>
-      <c r="N14" s="1">
-        <v>399</v>
-      </c>
-      <c r="O14" s="1">
-        <v>689</v>
-      </c>
-      <c r="P14" s="1">
-        <v>886</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1058</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1243</v>
-      </c>
-      <c r="S14" s="1">
-        <v>1486</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1795</v>
-      </c>
-      <c r="U14" s="1">
-        <v>2257</v>
-      </c>
-      <c r="V14" s="1">
-        <v>2815</v>
-      </c>
-      <c r="W14" s="1">
-        <v>3401</v>
-      </c>
-      <c r="X14" s="1">
-        <v>3743</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>4269</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>4937</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>6235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2">
-        <v>41</v>
-      </c>
-      <c r="H15" s="2">
-        <v>66</v>
-      </c>
-      <c r="I15" s="2">
-        <v>104</v>
-      </c>
-      <c r="J15" s="2">
-        <v>104</v>
-      </c>
-      <c r="K15" s="2">
-        <v>157</v>
-      </c>
-      <c r="L15" s="2">
-        <v>206</v>
-      </c>
-      <c r="M15" s="2">
-        <v>302</v>
-      </c>
-      <c r="N15" s="2">
-        <v>428</v>
-      </c>
-      <c r="O15" s="2">
-        <v>504</v>
-      </c>
-      <c r="P15" s="2">
-        <v>800</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1018</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1132</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1471</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1843</v>
-      </c>
-      <c r="U15" s="2">
-        <v>2203</v>
-      </c>
-      <c r="V15" s="2">
-        <v>2814</v>
-      </c>
-      <c r="W15" s="2">
-        <v>3062</v>
-      </c>
-      <c r="X15" s="2">
-        <v>3923</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>4876</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>5499</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1">
-        <v>90</v>
-      </c>
-      <c r="H16" s="1">
-        <v>136</v>
-      </c>
-      <c r="I16" s="1">
-        <v>157</v>
-      </c>
-      <c r="J16" s="1">
-        <v>176</v>
-      </c>
-      <c r="K16" s="1">
-        <v>176</v>
-      </c>
-      <c r="L16" s="1">
-        <v>436</v>
-      </c>
-      <c r="M16" s="1">
-        <v>632</v>
-      </c>
-      <c r="N16" s="1">
-        <v>895</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1002</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1090</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1282</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1360</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1527</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1601</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1794</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1994</v>
-      </c>
-      <c r="W16" s="1">
-        <v>2249</v>
-      </c>
-      <c r="X16" s="1">
-        <v>2538</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>2726</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>2902</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2">
-        <v>60</v>
-      </c>
-      <c r="G17" s="2">
-        <v>94</v>
-      </c>
-      <c r="H17" s="2">
-        <v>161</v>
-      </c>
-      <c r="I17" s="2">
-        <v>203</v>
-      </c>
-      <c r="J17" s="2">
-        <v>248</v>
-      </c>
-      <c r="K17" s="2">
-        <v>326</v>
-      </c>
-      <c r="L17" s="2">
-        <v>473</v>
-      </c>
-      <c r="M17" s="2">
-        <v>500</v>
-      </c>
-      <c r="N17" s="2">
-        <v>751</v>
-      </c>
-      <c r="O17" s="2">
-        <v>814</v>
-      </c>
-      <c r="P17" s="2">
-        <v>992</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1040</v>
-      </c>
-      <c r="R17" s="2">
-        <v>1121</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1196</v>
-      </c>
-      <c r="T17" s="2">
-        <v>1301</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1439</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1763</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1925</v>
-      </c>
-      <c r="X17" s="2">
-        <v>2038</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>2104</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>2318</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1">
-        <v>27</v>
-      </c>
-      <c r="I18" s="1">
-        <v>35</v>
-      </c>
-      <c r="J18" s="1">
-        <v>35</v>
-      </c>
-      <c r="K18" s="1">
-        <v>156</v>
-      </c>
-      <c r="L18" s="1">
-        <v>340</v>
-      </c>
-      <c r="M18" s="1">
-        <v>617</v>
-      </c>
-      <c r="N18" s="1">
-        <v>788</v>
-      </c>
-      <c r="O18" s="1">
-        <v>827</v>
-      </c>
-      <c r="P18" s="1">
-        <v>836</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>916</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1007</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1092</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1206</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1226</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1420</v>
-      </c>
-      <c r="W18" s="1">
-        <v>1420</v>
-      </c>
-      <c r="X18" s="1">
-        <v>1572</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>1703</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>1852</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2">
-        <v>15</v>
-      </c>
-      <c r="I19" s="2">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2">
-        <v>30</v>
-      </c>
-      <c r="K19" s="2">
-        <v>30</v>
-      </c>
-      <c r="L19" s="2">
-        <v>59</v>
-      </c>
-      <c r="M19" s="2">
-        <v>59</v>
-      </c>
-      <c r="N19" s="2">
-        <v>78</v>
-      </c>
-      <c r="O19" s="2">
-        <v>112</v>
-      </c>
-      <c r="P19" s="2">
-        <v>169</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>331</v>
-      </c>
-      <c r="R19" s="2">
-        <v>448</v>
-      </c>
-      <c r="S19" s="2">
-        <v>642</v>
-      </c>
-      <c r="T19" s="2">
-        <v>785</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1020</v>
-      </c>
-      <c r="V19" s="2">
-        <v>1280</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1600</v>
-      </c>
-      <c r="X19" s="2">
-        <v>2060</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>2362</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>2995</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1">
-        <v>48</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="AD21" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="I20" s="1">
-        <v>60</v>
-      </c>
-      <c r="J20" s="1">
-        <v>66</v>
-      </c>
-      <c r="K20" s="1">
-        <v>72</v>
-      </c>
-      <c r="L20" s="1">
-        <v>95</v>
-      </c>
-      <c r="M20" s="1">
-        <v>117</v>
-      </c>
-      <c r="N20" s="1">
-        <v>158</v>
-      </c>
-      <c r="O20" s="1">
-        <v>198</v>
-      </c>
-      <c r="P20" s="1">
-        <v>253</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>342</v>
-      </c>
-      <c r="R20" s="1">
-        <v>439</v>
-      </c>
-      <c r="S20" s="1">
-        <v>598</v>
-      </c>
-      <c r="T20" s="1">
-        <v>727</v>
-      </c>
-      <c r="U20" s="1">
-        <v>873</v>
-      </c>
-      <c r="V20" s="1">
-        <v>1146</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1377</v>
-      </c>
-      <c r="X20" s="1">
-        <v>1470</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>2088</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>2792</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>3409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2">
-        <v>57</v>
-      </c>
-      <c r="G21" s="2">
-        <v>66</v>
-      </c>
-      <c r="H21" s="2">
-        <v>64</v>
-      </c>
-      <c r="I21" s="2">
-        <v>76</v>
-      </c>
-      <c r="J21" s="2">
-        <v>83</v>
-      </c>
-      <c r="K21" s="2">
-        <v>101</v>
-      </c>
-      <c r="L21" s="2">
-        <v>117</v>
-      </c>
-      <c r="M21" s="2">
-        <v>159</v>
-      </c>
-      <c r="N21" s="2">
-        <v>160</v>
-      </c>
-      <c r="O21" s="2">
-        <v>236</v>
-      </c>
-      <c r="P21" s="2">
-        <v>272</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>375</v>
-      </c>
-      <c r="R21" s="2">
-        <v>452</v>
-      </c>
-      <c r="S21" s="2">
-        <v>565</v>
-      </c>
-      <c r="T21" s="2">
-        <v>681</v>
-      </c>
-      <c r="U21" s="2">
-        <v>877</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1071</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1356</v>
-      </c>
-      <c r="X21" s="2">
-        <v>1709</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>2136</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>2423</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>2806</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>